--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3750730.767915466</v>
+        <v>3748344.922263572</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9275893.047360519</v>
+        <v>9275893.047360521</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,64 +1215,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.309829763041575</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U10" t="n">
+        <v>3.334980354192922</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C11" t="n">
         <v>317.7610508980123</v>
@@ -1376,7 +1376,7 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E11" t="n">
-        <v>334.4185291992665</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>359.3642048687162</v>
@@ -1385,7 +1385,7 @@
         <v>363.4363382927601</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T11" t="n">
         <v>156.5219295167264</v>
@@ -1427,16 +1427,16 @@
         <v>203.4854473668909</v>
       </c>
       <c r="V11" t="n">
-        <v>98.17807643543851</v>
+        <v>280.2404175971396</v>
       </c>
       <c r="W11" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X11" t="n">
         <v>322.2192598054738</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.7260977830583</v>
+        <v>181.4367149466783</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H12" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I12" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C13" t="n">
         <v>119.7349802256326</v>
@@ -1534,19 +1534,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E13" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F13" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G13" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H13" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I13" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281386</v>
       </c>
       <c r="S13" t="n">
         <v>142.4639788279847</v>
@@ -1585,16 +1585,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V13" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W13" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X13" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C14" t="n">
         <v>317.7610508980123</v>
@@ -1613,16 +1613,16 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E14" t="n">
-        <v>334.4185291992665</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F14" t="n">
-        <v>359.3642048687162</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.4363382927601</v>
+        <v>231.0926311258298</v>
       </c>
       <c r="H14" t="n">
-        <v>247.3668405471868</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.2787303267597</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.5219295167264</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>203.4854473668909</v>
       </c>
       <c r="V14" t="n">
-        <v>210.8186127718694</v>
+        <v>280.2404175971396</v>
       </c>
       <c r="W14" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X14" t="n">
         <v>322.2192598054738</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C16" t="n">
         <v>119.7349802256326</v>
@@ -1771,19 +1771,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E16" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F16" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G16" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H16" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I16" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281387</v>
       </c>
       <c r="S16" t="n">
         <v>142.4639788279847</v>
@@ -1822,16 +1822,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V16" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W16" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X16" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2787303267597</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T17" t="n">
         <v>156.5219295167264</v>
@@ -2008,19 +2008,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E19" t="n">
-        <v>98.92212177357392</v>
+        <v>98.92212177357391</v>
       </c>
       <c r="F19" t="n">
-        <v>97.90920714993599</v>
+        <v>97.90920714993598</v>
       </c>
       <c r="G19" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H19" t="n">
-        <v>97.34867476819473</v>
+        <v>97.34867476819471</v>
       </c>
       <c r="I19" t="n">
-        <v>49.19742657619181</v>
+        <v>49.19742657619179</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E20" t="n">
-        <v>334.4185291992665</v>
+        <v>334.4185291992673</v>
       </c>
       <c r="F20" t="n">
         <v>359.3642048687162</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2787303267597</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T20" t="n">
         <v>156.5219295167264</v>
@@ -2245,19 +2245,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E22" t="n">
-        <v>98.92212177357392</v>
+        <v>98.92212177357391</v>
       </c>
       <c r="F22" t="n">
-        <v>97.90920714993599</v>
+        <v>97.90920714993598</v>
       </c>
       <c r="G22" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H22" t="n">
-        <v>97.34867476819473</v>
+        <v>97.34867476819471</v>
       </c>
       <c r="I22" t="n">
-        <v>49.19742657619181</v>
+        <v>49.19742657619179</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2787303267597</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T23" t="n">
         <v>156.5219295167264</v>
@@ -2482,19 +2482,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E25" t="n">
-        <v>98.92212177357392</v>
+        <v>98.92212177357391</v>
       </c>
       <c r="F25" t="n">
-        <v>97.90920714993599</v>
+        <v>97.90920714993598</v>
       </c>
       <c r="G25" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H25" t="n">
-        <v>97.34867476819473</v>
+        <v>97.34867476819471</v>
       </c>
       <c r="I25" t="n">
-        <v>49.19742657619181</v>
+        <v>49.19742657619179</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>410.9481791657553</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8786814201821</v>
+        <v>294.878681420182</v>
       </c>
       <c r="I26" t="n">
         <v>42.59677880594418</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>62.43644656770162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>89.46569724580911</v>
+        <v>89.46569724580908</v>
       </c>
       <c r="S28" t="n">
-        <v>189.97581970098</v>
+        <v>189.9758197009799</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5996500344806</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.212485449336</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>8.120900650781147</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2807,10 @@
         <v>410.9481791657553</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8786814201821</v>
+        <v>294.878681420182</v>
       </c>
       <c r="I29" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594413</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>250.9972882398861</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0376743939522</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>89.46569724580905</v>
       </c>
       <c r="S31" t="n">
-        <v>189.97581970098</v>
+        <v>189.9758197009799</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5996500344806</v>
+        <v>219.5996500344805</v>
       </c>
       <c r="U31" t="n">
-        <v>258.2826490809093</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>6.837999196268072</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.954871109185</v>
+        <v>380.9548711091849</v>
       </c>
       <c r="C32" t="n">
-        <v>363.493921216712</v>
+        <v>363.4939212167118</v>
       </c>
       <c r="D32" t="n">
-        <v>352.9040710663874</v>
+        <v>352.9040710663872</v>
       </c>
       <c r="E32" t="n">
-        <v>380.1513995179662</v>
+        <v>380.1513995179661</v>
       </c>
       <c r="F32" t="n">
-        <v>405.0970751874158</v>
+        <v>405.0970751874157</v>
       </c>
       <c r="G32" t="n">
-        <v>409.1692086114597</v>
+        <v>409.1692086114596</v>
       </c>
       <c r="H32" t="n">
-        <v>293.0997108658865</v>
+        <v>293.0997108658864</v>
       </c>
       <c r="I32" t="n">
-        <v>40.8178082516486</v>
+        <v>40.81780825164848</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>108.0116006454593</v>
+        <v>108.0116006454592</v>
       </c>
       <c r="T32" t="n">
-        <v>202.254799835426</v>
+        <v>202.2547998354259</v>
       </c>
       <c r="U32" t="n">
-        <v>249.2183176855905</v>
+        <v>249.2183176855904</v>
       </c>
       <c r="V32" t="n">
-        <v>325.9732879158393</v>
+        <v>325.9732879158392</v>
       </c>
       <c r="W32" t="n">
-        <v>347.4619981631174</v>
+        <v>347.4619981631173</v>
       </c>
       <c r="X32" t="n">
-        <v>367.9521301241734</v>
+        <v>367.9521301241733</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.458968101758</v>
+        <v>384.4589681017579</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.0530096276417</v>
+        <v>178.0530096276416</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.6420774686355</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2504803880584348</v>
+        <v>87.6867266915134</v>
       </c>
       <c r="S34" t="n">
-        <v>188.1968491466844</v>
+        <v>188.1968491466843</v>
       </c>
       <c r="T34" t="n">
-        <v>217.820679480185</v>
+        <v>217.8206794801849</v>
       </c>
       <c r="U34" t="n">
-        <v>284.4335148950404</v>
+        <v>277.2858759576931</v>
       </c>
       <c r="V34" t="n">
-        <v>250.3586727695324</v>
+        <v>250.3586727695323</v>
       </c>
       <c r="W34" t="n">
-        <v>284.7440277822954</v>
+        <v>284.7440277822953</v>
       </c>
       <c r="X34" t="n">
-        <v>223.9306848347416</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8056827977992</v>
+        <v>216.8056827977991</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>363.4363382927601</v>
       </c>
       <c r="H35" t="n">
-        <v>247.3668405471868</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.27873032675967</v>
+        <v>62.2787303267597</v>
       </c>
       <c r="T35" t="n">
         <v>156.5219295167264</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C37" t="n">
         <v>119.7349802256326</v>
@@ -3430,19 +3430,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E37" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F37" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G37" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H37" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I37" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281387</v>
       </c>
       <c r="S37" t="n">
         <v>142.4639788279847</v>
@@ -3481,16 +3481,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V37" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W37" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X37" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>363.4363382927601</v>
       </c>
       <c r="H38" t="n">
-        <v>247.3668405471868</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.27873032675967</v>
+        <v>62.2787303267597</v>
       </c>
       <c r="T38" t="n">
         <v>156.5219295167264</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C40" t="n">
         <v>119.7349802256326</v>
@@ -3667,19 +3667,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E40" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F40" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G40" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H40" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I40" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281387</v>
       </c>
       <c r="S40" t="n">
         <v>142.4639788279847</v>
@@ -3718,16 +3718,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V40" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W40" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X40" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3746,10 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E41" t="n">
-        <v>334.4185291992665</v>
+        <v>202.0748220323371</v>
       </c>
       <c r="F41" t="n">
-        <v>359.3642048687162</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>363.4363382927601</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.2787303267597</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.5219295167264</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>203.4854473668909</v>
       </c>
       <c r="V41" t="n">
-        <v>210.8186127718706</v>
+        <v>280.2404175971396</v>
       </c>
       <c r="W41" t="n">
         <v>301.7291278444177</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C43" t="n">
         <v>119.7349802256326</v>
@@ -3904,19 +3904,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E43" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F43" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G43" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H43" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I43" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281387</v>
       </c>
       <c r="S43" t="n">
         <v>142.4639788279847</v>
@@ -3955,16 +3955,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V43" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W43" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X43" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C44" t="n">
         <v>317.7610508980123</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.1712007476877</v>
       </c>
       <c r="E44" t="n">
-        <v>334.4185291992665</v>
+        <v>90.07745771080715</v>
       </c>
       <c r="F44" t="n">
         <v>359.3642048687162</v>
@@ -3992,7 +3992,7 @@
         <v>363.4363382927601</v>
       </c>
       <c r="H44" t="n">
-        <v>247.3668405471868</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.2787303267597</v>
       </c>
       <c r="T44" t="n">
-        <v>34.26394855552785</v>
+        <v>156.5219295167264</v>
       </c>
       <c r="U44" t="n">
         <v>203.4854473668909</v>
       </c>
       <c r="V44" t="n">
-        <v>280.2404175971396</v>
+        <v>280.2404175971397</v>
       </c>
       <c r="W44" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X44" t="n">
         <v>322.2192598054738</v>
       </c>
       <c r="Y44" t="n">
-        <v>338.7260977830583</v>
+        <v>338.7260977830584</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C46" t="n">
         <v>119.7349802256326</v>
@@ -4141,19 +4141,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E46" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357395</v>
       </c>
       <c r="F46" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993602</v>
       </c>
       <c r="G46" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H46" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819475</v>
       </c>
       <c r="I46" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619184</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95385637281385</v>
+        <v>41.9538563728139</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4639788279847</v>
+        <v>142.4639788279848</v>
       </c>
       <c r="T46" t="n">
-        <v>172.0878091614853</v>
+        <v>172.0878091614854</v>
       </c>
       <c r="U46" t="n">
-        <v>238.7006445763407</v>
+        <v>238.7006445763408</v>
       </c>
       <c r="V46" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W46" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X46" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
         <v>14.44108515774386</v>
@@ -4805,16 +4805,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
@@ -4823,31 +4823,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L9" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L9" t="n">
-        <v>14.16465422792556</v>
-      </c>
       <c r="M9" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
-      <c r="O9" t="n">
-        <v>27.50418296684575</v>
-      </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
@@ -4981,31 +4981,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T10" t="n">
-        <v>24.75525293138463</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="U10" t="n">
-        <v>17.80975218218115</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V10" t="n">
-        <v>17.80975218218115</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W10" t="n">
-        <v>17.80975218218115</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1770.019545245612</v>
+        <v>1682.088546607148</v>
       </c>
       <c r="C11" t="n">
-        <v>1449.048786762771</v>
+        <v>1361.117788124307</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.774846613592</v>
+        <v>1050.843847975128</v>
       </c>
       <c r="E11" t="n">
-        <v>800.9783524729183</v>
+        <v>1050.843847975128</v>
       </c>
       <c r="F11" t="n">
-        <v>437.9842061408818</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="G11" t="n">
-        <v>70.87679372395247</v>
+        <v>320.7422892261615</v>
       </c>
       <c r="H11" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="I11" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J11" t="n">
-        <v>424.9388170014965</v>
+        <v>424.9388170014967</v>
       </c>
       <c r="K11" t="n">
-        <v>755.4268545855273</v>
+        <v>755.4268545855275</v>
       </c>
       <c r="L11" t="n">
         <v>1202.328250817783</v>
       </c>
       <c r="M11" t="n">
-        <v>1809.335332190531</v>
+        <v>1731.26160025065</v>
       </c>
       <c r="N11" t="n">
-        <v>2351.441184578846</v>
+        <v>2273.367452638965</v>
       </c>
       <c r="O11" t="n">
         <v>2850.001107429538</v>
       </c>
       <c r="P11" t="n">
-        <v>3241.009466132174</v>
+        <v>3241.009466132175</v>
       </c>
       <c r="Q11" t="n">
-        <v>3486.467712978533</v>
+        <v>3486.467712978534</v>
       </c>
       <c r="R11" t="n">
-        <v>3543.839686197623</v>
+        <v>3543.839686197625</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.839686197623</v>
+        <v>3480.931877786757</v>
       </c>
       <c r="T11" t="n">
-        <v>3385.736727089819</v>
+        <v>3322.828918678952</v>
       </c>
       <c r="U11" t="n">
-        <v>3180.195871163666</v>
+        <v>3117.2880627528</v>
       </c>
       <c r="V11" t="n">
-        <v>3081.026096986455</v>
+        <v>2834.2169338668</v>
       </c>
       <c r="W11" t="n">
-        <v>2776.249200173912</v>
+        <v>2529.440037054257</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.775200370403</v>
+        <v>2203.966037250748</v>
       </c>
       <c r="Y11" t="n">
-        <v>2108.627626852162</v>
+        <v>2020.696628213699</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>170.7882675660274</v>
       </c>
       <c r="H12" t="n">
-        <v>80.14829577651187</v>
+        <v>80.14829577651189</v>
       </c>
       <c r="I12" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J12" t="n">
-        <v>175.448642901372</v>
+        <v>163.2302045503651</v>
       </c>
       <c r="K12" t="n">
-        <v>411.4501565634876</v>
+        <v>399.2317182124808</v>
       </c>
       <c r="L12" t="n">
-        <v>775.105857233079</v>
+        <v>762.8874188820723</v>
       </c>
       <c r="M12" t="n">
-        <v>1218.831775555478</v>
+        <v>1206.613337204471</v>
       </c>
       <c r="N12" t="n">
-        <v>1688.71044350394</v>
+        <v>1676.492005152934</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.337831229079</v>
+        <v>2084.119392878072</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.161680700533</v>
+        <v>2391.943242349526</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.014575677664</v>
+        <v>2547.796137326658</v>
       </c>
       <c r="R12" t="n">
         <v>2560.014575677664</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.5150524711266</v>
+        <v>760.5150524711275</v>
       </c>
       <c r="C13" t="n">
-        <v>639.5706280007907</v>
+        <v>639.5706280007915</v>
       </c>
       <c r="D13" t="n">
-        <v>537.445747046026</v>
+        <v>537.4457470460268</v>
       </c>
       <c r="E13" t="n">
-        <v>437.5244119212038</v>
+        <v>437.5244119212046</v>
       </c>
       <c r="F13" t="n">
-        <v>338.6262228808644</v>
+        <v>338.6262228808652</v>
       </c>
       <c r="G13" t="n">
-        <v>218.9031587182817</v>
+        <v>218.9031587182824</v>
       </c>
       <c r="H13" t="n">
         <v>120.5711640029341</v>
       </c>
       <c r="I13" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J13" t="n">
         <v>162.2056022534222</v>
@@ -5218,16 +5218,16 @@
         <v>2172.643659075565</v>
       </c>
       <c r="Q13" t="n">
-        <v>2296.306986973285</v>
+        <v>2296.306986973286</v>
       </c>
       <c r="R13" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S13" t="n">
-        <v>2110.026345356317</v>
+        <v>2110.026345356318</v>
       </c>
       <c r="T13" t="n">
-        <v>1936.20027549623</v>
+        <v>1936.200275496231</v>
       </c>
       <c r="U13" t="n">
         <v>1695.088513297907</v>
@@ -5236,13 +5236,13 @@
         <v>1488.395783549591</v>
       </c>
       <c r="W13" t="n">
-        <v>1246.970371970201</v>
+        <v>1246.970371970202</v>
       </c>
       <c r="X13" t="n">
         <v>1066.972579529755</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.1717588437954</v>
+        <v>894.1717588437963</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2019.885040747821</v>
+        <v>1523.210382125956</v>
       </c>
       <c r="C14" t="n">
-        <v>1698.91428226498</v>
+        <v>1202.239623643115</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.640342115801</v>
+        <v>891.9656834939358</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.843847975127</v>
+        <v>554.1691893532623</v>
       </c>
       <c r="F14" t="n">
-        <v>687.8497016430907</v>
+        <v>554.1691893532623</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7422892261614</v>
+        <v>320.7422892261615</v>
       </c>
       <c r="H14" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="I14" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J14" t="n">
         <v>257.5331679811435</v>
@@ -5285,43 +5285,43 @@
         <v>1034.92260179743</v>
       </c>
       <c r="M14" t="n">
-        <v>1563.855951230297</v>
+        <v>1809.335332190532</v>
       </c>
       <c r="N14" t="n">
-        <v>2105.961803618612</v>
+        <v>2351.441184578847</v>
       </c>
       <c r="O14" t="n">
-        <v>2850.001107429538</v>
+        <v>2850.001107429539</v>
       </c>
       <c r="P14" t="n">
-        <v>3241.009466132174</v>
+        <v>3241.009466132175</v>
       </c>
       <c r="Q14" t="n">
-        <v>3486.467712978533</v>
+        <v>3486.467712978534</v>
       </c>
       <c r="R14" t="n">
-        <v>3543.839686197623</v>
+        <v>3543.839686197625</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.839686197623</v>
+        <v>3480.931877786757</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.839686197623</v>
+        <v>3322.828918678952</v>
       </c>
       <c r="U14" t="n">
-        <v>3543.839686197623</v>
+        <v>3117.288062752799</v>
       </c>
       <c r="V14" t="n">
-        <v>3330.891592488665</v>
+        <v>2834.2169338668</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.114695676121</v>
+        <v>2529.440037054256</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.640695872612</v>
+        <v>2203.966037250747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2358.493122354372</v>
+        <v>1861.818463732507</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>170.7882675660274</v>
       </c>
       <c r="H15" t="n">
-        <v>80.14829577651187</v>
+        <v>80.1482957765119</v>
       </c>
       <c r="I15" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J15" t="n">
-        <v>175.448642901372</v>
+        <v>163.2302045503651</v>
       </c>
       <c r="K15" t="n">
-        <v>411.4501565634876</v>
+        <v>399.2317182124807</v>
       </c>
       <c r="L15" t="n">
-        <v>775.105857233079</v>
+        <v>762.8874188820721</v>
       </c>
       <c r="M15" t="n">
-        <v>1218.831775555478</v>
+        <v>1206.613337204471</v>
       </c>
       <c r="N15" t="n">
         <v>1688.71044350394</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.5150524711272</v>
+        <v>760.5150524711274</v>
       </c>
       <c r="C16" t="n">
-        <v>639.5706280007913</v>
+        <v>639.5706280007914</v>
       </c>
       <c r="D16" t="n">
-        <v>537.4457470460266</v>
+        <v>537.4457470460267</v>
       </c>
       <c r="E16" t="n">
-        <v>437.5244119212044</v>
+        <v>437.5244119212045</v>
       </c>
       <c r="F16" t="n">
-        <v>338.626222880865</v>
+        <v>338.6262228808652</v>
       </c>
       <c r="G16" t="n">
-        <v>218.9031587182823</v>
+        <v>218.9031587182824</v>
       </c>
       <c r="H16" t="n">
-        <v>120.5711640029341</v>
+        <v>120.5711640029342</v>
       </c>
       <c r="I16" t="n">
-        <v>70.87679372395247</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J16" t="n">
-        <v>162.2056022534222</v>
+        <v>162.2056022534229</v>
       </c>
       <c r="K16" t="n">
-        <v>411.8646648276125</v>
+        <v>411.8646648276132</v>
       </c>
       <c r="L16" t="n">
-        <v>773.7146568054592</v>
+        <v>773.7146568054599</v>
       </c>
       <c r="M16" t="n">
-        <v>1163.066954988832</v>
+        <v>1163.066954988833</v>
       </c>
       <c r="N16" t="n">
         <v>1549.714370316391</v>
@@ -5455,13 +5455,13 @@
         <v>2172.643659075565</v>
       </c>
       <c r="Q16" t="n">
-        <v>2296.306986973285</v>
+        <v>2296.306986973286</v>
       </c>
       <c r="R16" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S16" t="n">
-        <v>2110.026345356317</v>
+        <v>2110.026345356318</v>
       </c>
       <c r="T16" t="n">
         <v>1936.200275496231</v>
@@ -5473,13 +5473,13 @@
         <v>1488.395783549591</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.970371970201</v>
+        <v>1246.970371970202</v>
       </c>
       <c r="X16" t="n">
         <v>1066.972579529755</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.1717588437959</v>
+        <v>894.1717588437962</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1398.776559638696</v>
       </c>
       <c r="E17" t="n">
-        <v>1060.980065498023</v>
+        <v>1060.980065498022</v>
       </c>
       <c r="F17" t="n">
-        <v>697.9859191659856</v>
+        <v>697.9859191659859</v>
       </c>
       <c r="G17" t="n">
         <v>330.8785067490567</v>
@@ -5513,34 +5513,34 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J17" t="n">
-        <v>435.0750345243918</v>
+        <v>415.9916075688124</v>
       </c>
       <c r="K17" t="n">
-        <v>765.5630721084226</v>
+        <v>746.4796451528432</v>
       </c>
       <c r="L17" t="n">
-        <v>1212.464468340678</v>
+        <v>1193.381041385099</v>
       </c>
       <c r="M17" t="n">
-        <v>2105.954367581986</v>
+        <v>1722.314390817965</v>
       </c>
       <c r="N17" t="n">
-        <v>2648.060219970302</v>
+        <v>2264.420243206281</v>
       </c>
       <c r="O17" t="n">
-        <v>3146.620142820994</v>
+        <v>2762.980166056973</v>
       </c>
       <c r="P17" t="n">
-        <v>3537.62850152363</v>
+        <v>3472.569245849377</v>
       </c>
       <c r="Q17" t="n">
-        <v>3993.278589123294</v>
+        <v>3928.219333449041</v>
       </c>
       <c r="R17" t="n">
         <v>4050.650562342385</v>
       </c>
       <c r="S17" t="n">
-        <v>3987.742753931517</v>
+        <v>3987.742753931516</v>
       </c>
       <c r="T17" t="n">
         <v>3829.639794823712</v>
@@ -5592,19 +5592,19 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J18" t="n">
-        <v>185.5848604242675</v>
+        <v>173.3664220732603</v>
       </c>
       <c r="K18" t="n">
-        <v>421.5863740863831</v>
+        <v>409.3679357353759</v>
       </c>
       <c r="L18" t="n">
-        <v>785.2420747559745</v>
+        <v>773.0236364049673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.967993078374</v>
+        <v>1216.749554727366</v>
       </c>
       <c r="N18" t="n">
-        <v>1698.846661026836</v>
+        <v>1686.628222675829</v>
       </c>
       <c r="O18" t="n">
         <v>2106.474048751974</v>
@@ -5729,7 +5729,7 @@
         <v>2030.021258270716</v>
       </c>
       <c r="C20" t="n">
-        <v>1709.050499787875</v>
+        <v>1709.050499787876</v>
       </c>
       <c r="D20" t="n">
         <v>1398.776559638696</v>
@@ -5738,7 +5738,7 @@
         <v>1060.980065498022</v>
       </c>
       <c r="F20" t="n">
-        <v>697.9859191659857</v>
+        <v>697.9859191659859</v>
       </c>
       <c r="G20" t="n">
         <v>330.8785067490567</v>
@@ -5756,22 +5756,22 @@
         <v>765.5630721084226</v>
       </c>
       <c r="L20" t="n">
-        <v>1212.464468340678</v>
+        <v>1345.161423778055</v>
       </c>
       <c r="M20" t="n">
-        <v>2186.416215931449</v>
+        <v>1874.094773210921</v>
       </c>
       <c r="N20" t="n">
-        <v>2728.522068319764</v>
+        <v>2416.200625599236</v>
       </c>
       <c r="O20" t="n">
-        <v>3227.081991170457</v>
+        <v>3291.752727900046</v>
       </c>
       <c r="P20" t="n">
-        <v>3618.090349873093</v>
+        <v>3682.761086602683</v>
       </c>
       <c r="Q20" t="n">
-        <v>3993.278589123294</v>
+        <v>3928.219333449041</v>
       </c>
       <c r="R20" t="n">
         <v>4050.650562342385</v>
@@ -5829,28 +5829,28 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J21" t="n">
-        <v>185.5848604242675</v>
+        <v>173.3664220732603</v>
       </c>
       <c r="K21" t="n">
-        <v>421.5863740863831</v>
+        <v>409.3679357353759</v>
       </c>
       <c r="L21" t="n">
-        <v>785.2420747559745</v>
+        <v>773.0236364049673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.967993078374</v>
+        <v>1216.749554727366</v>
       </c>
       <c r="N21" t="n">
-        <v>1698.846661026836</v>
+        <v>1686.628222675829</v>
       </c>
       <c r="O21" t="n">
-        <v>2106.474048751974</v>
+        <v>2094.255610400967</v>
       </c>
       <c r="P21" t="n">
-        <v>2414.297898223428</v>
+        <v>2402.079459872421</v>
       </c>
       <c r="Q21" t="n">
-        <v>2570.15079320056</v>
+        <v>2557.932354849552</v>
       </c>
       <c r="R21" t="n">
         <v>2570.15079320056</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.021258270717</v>
+        <v>2030.021258270716</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.050499787876</v>
+        <v>1709.050499787875</v>
       </c>
       <c r="D23" t="n">
-        <v>1398.776559638697</v>
+        <v>1398.776559638696</v>
       </c>
       <c r="E23" t="n">
-        <v>1060.980065498024</v>
+        <v>1060.980065498023</v>
       </c>
       <c r="F23" t="n">
-        <v>697.9859191659868</v>
+        <v>697.9859191659862</v>
       </c>
       <c r="G23" t="n">
         <v>330.8785067490567</v>
       </c>
       <c r="H23" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="I23" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J23" t="n">
-        <v>435.0750345243918</v>
+        <v>267.6693855040387</v>
       </c>
       <c r="K23" t="n">
-        <v>765.5630721084226</v>
+        <v>598.1574230880694</v>
       </c>
       <c r="L23" t="n">
-        <v>1212.464468340678</v>
+        <v>1078.988307307003</v>
       </c>
       <c r="M23" t="n">
-        <v>2186.416215931449</v>
+        <v>1607.92165673987</v>
       </c>
       <c r="N23" t="n">
-        <v>2728.522068319764</v>
+        <v>2583.000964296049</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.081991170457</v>
+        <v>3081.560887146741</v>
       </c>
       <c r="P23" t="n">
-        <v>3618.090349873093</v>
+        <v>3472.569245849377</v>
       </c>
       <c r="Q23" t="n">
-        <v>3993.278589123295</v>
+        <v>3928.219333449041</v>
       </c>
       <c r="R23" t="n">
         <v>4050.650562342385</v>
       </c>
       <c r="S23" t="n">
-        <v>3987.742753931517</v>
+        <v>3987.742753931516</v>
       </c>
       <c r="T23" t="n">
-        <v>3829.639794823713</v>
+        <v>3829.639794823711</v>
       </c>
       <c r="U23" t="n">
-        <v>3624.09893889756</v>
+        <v>3624.098938897559</v>
       </c>
       <c r="V23" t="n">
-        <v>3341.027810011561</v>
+        <v>3341.02781001156</v>
       </c>
       <c r="W23" t="n">
-        <v>3036.250913199017</v>
+        <v>3036.250913199016</v>
       </c>
       <c r="X23" t="n">
         <v>2710.776913395508</v>
       </c>
       <c r="Y23" t="n">
-        <v>2368.629339877268</v>
+        <v>2368.629339877267</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H24" t="n">
-        <v>90.28451329940711</v>
+        <v>90.2845132994071</v>
       </c>
       <c r="I24" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J24" t="n">
         <v>173.3664220732603</v>
       </c>
       <c r="K24" t="n">
-        <v>409.3679357353759</v>
+        <v>421.5863740863831</v>
       </c>
       <c r="L24" t="n">
-        <v>773.0236364049673</v>
+        <v>785.2420747559745</v>
       </c>
       <c r="M24" t="n">
         <v>1228.967993078374</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>770.6512699940224</v>
+        <v>770.6512699940226</v>
       </c>
       <c r="C25" t="n">
-        <v>649.7068455236865</v>
+        <v>649.7068455236868</v>
       </c>
       <c r="D25" t="n">
-        <v>547.5819645689218</v>
+        <v>547.581964568922</v>
       </c>
       <c r="E25" t="n">
-        <v>447.6606294440996</v>
+        <v>447.6606294440998</v>
       </c>
       <c r="F25" t="n">
-        <v>348.7624404037603</v>
+        <v>348.7624404037604</v>
       </c>
       <c r="G25" t="n">
-        <v>229.0393762411775</v>
+        <v>229.0393762411777</v>
       </c>
       <c r="H25" t="n">
         <v>130.7073815258293</v>
       </c>
       <c r="I25" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J25" t="n">
-        <v>172.3418197763174</v>
+        <v>172.3418197763177</v>
       </c>
       <c r="K25" t="n">
         <v>422.0008823505081</v>
       </c>
       <c r="L25" t="n">
-        <v>783.8508743283551</v>
+        <v>783.8508743283548</v>
       </c>
       <c r="M25" t="n">
         <v>1173.203172511728</v>
       </c>
       <c r="N25" t="n">
-        <v>1559.850587839287</v>
+        <v>1559.850587839286</v>
       </c>
       <c r="O25" t="n">
-        <v>1904.556457231789</v>
+        <v>1904.556457231788</v>
       </c>
       <c r="P25" t="n">
         <v>2182.77987659846</v>
@@ -6190,7 +6190,7 @@
         <v>1077.108797052651</v>
       </c>
       <c r="Y25" t="n">
-        <v>904.3079763666912</v>
+        <v>904.3079763666914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2375.588892349869</v>
+        <v>2375.588892349868</v>
       </c>
       <c r="C26" t="n">
-        <v>2006.626375409458</v>
+        <v>2006.626375409456</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.360676802707</v>
+        <v>1648.360676802706</v>
       </c>
       <c r="E26" t="n">
-        <v>1262.572424204463</v>
+        <v>1262.572424204462</v>
       </c>
       <c r="F26" t="n">
-        <v>851.5865194148553</v>
+        <v>851.586519414854</v>
       </c>
       <c r="G26" t="n">
-        <v>436.487348540355</v>
+        <v>436.4873485403554</v>
       </c>
       <c r="H26" t="n">
         <v>138.6300945805756</v>
       </c>
       <c r="I26" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="J26" t="n">
         <v>282.2594195388331</v>
       </c>
       <c r="K26" t="n">
-        <v>612.7474571228639</v>
+        <v>933.6514155683169</v>
       </c>
       <c r="L26" t="n">
-        <v>1473.133455760065</v>
+        <v>1380.552811800572</v>
       </c>
       <c r="M26" t="n">
-        <v>2447.085203350836</v>
+        <v>2139.883168781819</v>
       </c>
       <c r="N26" t="n">
-        <v>3422.164510907016</v>
+        <v>2681.989021170134</v>
       </c>
       <c r="O26" t="n">
-        <v>4086.31368531402</v>
+        <v>3557.541123470945</v>
       </c>
       <c r="P26" t="n">
-        <v>4477.322044016656</v>
+        <v>4267.130203263348</v>
       </c>
       <c r="Q26" t="n">
-        <v>4722.780290863015</v>
+        <v>4722.780290863013</v>
       </c>
       <c r="R26" t="n">
-        <v>4780.152264082106</v>
+        <v>4780.152264082104</v>
       </c>
       <c r="S26" t="n">
-        <v>4669.252697213667</v>
+        <v>4669.252697213664</v>
       </c>
       <c r="T26" t="n">
-        <v>4463.157979648291</v>
+        <v>4463.157979648288</v>
       </c>
       <c r="U26" t="n">
-        <v>4209.625365264567</v>
+        <v>4209.625365264566</v>
       </c>
       <c r="V26" t="n">
-        <v>3878.562477920997</v>
+        <v>3878.562477920995</v>
       </c>
       <c r="W26" t="n">
-        <v>3525.793822650883</v>
+        <v>3525.793822650881</v>
       </c>
       <c r="X26" t="n">
-        <v>3152.328064389803</v>
+        <v>3152.328064389801</v>
       </c>
       <c r="Y26" t="n">
-        <v>2762.188732413991</v>
+        <v>2762.188732413989</v>
       </c>
     </row>
     <row r="27">
@@ -6288,10 +6288,10 @@
         <v>637.6639291150116</v>
       </c>
       <c r="E27" t="n">
-        <v>478.4264741095561</v>
+        <v>478.426474109556</v>
       </c>
       <c r="F27" t="n">
-        <v>331.8919161364411</v>
+        <v>331.891916136441</v>
       </c>
       <c r="G27" t="n">
         <v>195.514519123717</v>
@@ -6300,31 +6300,31 @@
         <v>104.8745473342015</v>
       </c>
       <c r="I27" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="J27" t="n">
-        <v>200.1748944590619</v>
+        <v>187.9564561080547</v>
       </c>
       <c r="K27" t="n">
-        <v>436.1764081211775</v>
+        <v>423.9579697701703</v>
       </c>
       <c r="L27" t="n">
-        <v>799.8321087907689</v>
+        <v>787.6136704397617</v>
       </c>
       <c r="M27" t="n">
-        <v>1243.558027113168</v>
+        <v>1231.339588762161</v>
       </c>
       <c r="N27" t="n">
-        <v>1713.43669506163</v>
+        <v>1701.218256710623</v>
       </c>
       <c r="O27" t="n">
-        <v>2121.064082786769</v>
+        <v>2108.845644435761</v>
       </c>
       <c r="P27" t="n">
-        <v>2428.887932258222</v>
+        <v>2416.669493907215</v>
       </c>
       <c r="Q27" t="n">
-        <v>2584.740827235354</v>
+        <v>2572.522388884347</v>
       </c>
       <c r="R27" t="n">
         <v>2584.740827235354</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>158.6701630267953</v>
+        <v>411.4291757074593</v>
       </c>
       <c r="C28" t="n">
-        <v>158.6701630267953</v>
+        <v>242.4929927795524</v>
       </c>
       <c r="D28" t="n">
-        <v>95.60304528164212</v>
+        <v>242.4929927795524</v>
       </c>
       <c r="E28" t="n">
-        <v>95.60304528164212</v>
+        <v>242.4929927795524</v>
       </c>
       <c r="F28" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="G28" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="H28" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="I28" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="J28" t="n">
         <v>139.8951313468465</v>
@@ -6391,7 +6391,7 @@
         <v>657.330740970353</v>
       </c>
       <c r="M28" t="n">
-        <v>999.6463166894608</v>
+        <v>999.6463166894611</v>
       </c>
       <c r="N28" t="n">
         <v>1339.257009552754</v>
@@ -6400,34 +6400,34 @@
         <v>1636.926156480991</v>
       </c>
       <c r="P28" t="n">
-        <v>1868.112853383397</v>
+        <v>1868.112853383398</v>
       </c>
       <c r="Q28" t="n">
-        <v>1944.739458816852</v>
+        <v>1944.739458816853</v>
       </c>
       <c r="R28" t="n">
-        <v>1854.370067659469</v>
+        <v>1854.37006765947</v>
       </c>
       <c r="S28" t="n">
-        <v>1662.475300284742</v>
+        <v>1662.475300284743</v>
       </c>
       <c r="T28" t="n">
-        <v>1440.657471967085</v>
+        <v>1662.475300284743</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.55395131119</v>
+        <v>1373.371779628848</v>
       </c>
       <c r="V28" t="n">
-        <v>896.8694631053031</v>
+        <v>1118.687291422961</v>
       </c>
       <c r="W28" t="n">
-        <v>607.4522930683427</v>
+        <v>829.2701213860005</v>
       </c>
       <c r="X28" t="n">
-        <v>379.4627421703254</v>
+        <v>601.2805704879831</v>
       </c>
       <c r="Y28" t="n">
-        <v>158.6701630267953</v>
+        <v>593.077640537699</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2375.588892349871</v>
+        <v>2375.588892349869</v>
       </c>
       <c r="C29" t="n">
-        <v>2006.626375409459</v>
+        <v>2006.626375409457</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.360676802708</v>
+        <v>1648.360676802707</v>
       </c>
       <c r="E29" t="n">
-        <v>1262.572424204464</v>
+        <v>1262.572424204463</v>
       </c>
       <c r="F29" t="n">
-        <v>851.5865194148563</v>
+        <v>851.586519414855</v>
       </c>
       <c r="G29" t="n">
-        <v>436.4873485403559</v>
+        <v>436.487348540355</v>
       </c>
       <c r="H29" t="n">
-        <v>138.6300945805756</v>
+        <v>138.6300945805755</v>
       </c>
       <c r="I29" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="J29" t="n">
-        <v>447.5971714129628</v>
+        <v>449.6650685591861</v>
       </c>
       <c r="K29" t="n">
-        <v>1098.989167442447</v>
+        <v>1030.962948734659</v>
       </c>
       <c r="L29" t="n">
-        <v>1545.890563674702</v>
+        <v>1477.864344966914</v>
       </c>
       <c r="M29" t="n">
-        <v>2074.823913107569</v>
+        <v>2451.816092557685</v>
       </c>
       <c r="N29" t="n">
-        <v>2616.929765495884</v>
+        <v>2993.921944946</v>
       </c>
       <c r="O29" t="n">
-        <v>3492.481867796694</v>
+        <v>3492.481867796692</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.070947589098</v>
+        <v>4202.070947589096</v>
       </c>
       <c r="Q29" t="n">
-        <v>4657.721035188762</v>
+        <v>4657.721035188761</v>
       </c>
       <c r="R29" t="n">
-        <v>4780.152264082106</v>
+        <v>4780.152264082104</v>
       </c>
       <c r="S29" t="n">
-        <v>4669.252697213667</v>
+        <v>4669.252697213665</v>
       </c>
       <c r="T29" t="n">
-        <v>4463.157979648292</v>
+        <v>4463.157979648289</v>
       </c>
       <c r="U29" t="n">
-        <v>4209.625365264569</v>
+        <v>4209.625365264566</v>
       </c>
       <c r="V29" t="n">
-        <v>3878.562477920998</v>
+        <v>3878.562477920996</v>
       </c>
       <c r="W29" t="n">
-        <v>3525.793822650884</v>
+        <v>3525.793822650882</v>
       </c>
       <c r="X29" t="n">
-        <v>3152.328064389804</v>
+        <v>3152.328064389802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2762.188732413993</v>
+        <v>2762.18873241399</v>
       </c>
     </row>
     <row r="30">
@@ -6525,10 +6525,10 @@
         <v>637.6639291150116</v>
       </c>
       <c r="E30" t="n">
-        <v>478.4264741095561</v>
+        <v>478.426474109556</v>
       </c>
       <c r="F30" t="n">
-        <v>331.8919161364411</v>
+        <v>331.891916136441</v>
       </c>
       <c r="G30" t="n">
         <v>195.514519123717</v>
@@ -6537,7 +6537,7 @@
         <v>104.8745473342015</v>
       </c>
       <c r="I30" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="J30" t="n">
         <v>187.9564561080547</v>
@@ -6561,7 +6561,7 @@
         <v>2416.669493907215</v>
       </c>
       <c r="Q30" t="n">
-        <v>2584.740827235354</v>
+        <v>2572.522388884347</v>
       </c>
       <c r="R30" t="n">
         <v>2584.740827235354</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.60304528164212</v>
+        <v>730.2837838244313</v>
       </c>
       <c r="C31" t="n">
-        <v>95.60304528164212</v>
+        <v>561.3476008965245</v>
       </c>
       <c r="D31" t="n">
-        <v>95.60304528164212</v>
+        <v>411.2309614841888</v>
       </c>
       <c r="E31" t="n">
-        <v>95.60304528164212</v>
+        <v>263.3178679017957</v>
       </c>
       <c r="F31" t="n">
-        <v>95.60304528164212</v>
+        <v>263.3178679017958</v>
       </c>
       <c r="G31" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="H31" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="I31" t="n">
-        <v>95.60304528164212</v>
+        <v>95.60304528164208</v>
       </c>
       <c r="J31" t="n">
-        <v>139.8951313468465</v>
+        <v>139.8951313468466</v>
       </c>
       <c r="K31" t="n">
-        <v>342.5174714567715</v>
+        <v>342.5174714567717</v>
       </c>
       <c r="L31" t="n">
-        <v>657.330740970353</v>
+        <v>657.3307409703532</v>
       </c>
       <c r="M31" t="n">
-        <v>999.6463166894608</v>
+        <v>999.6463166894609</v>
       </c>
       <c r="N31" t="n">
         <v>1339.257009552754</v>
       </c>
       <c r="O31" t="n">
-        <v>1636.92615648099</v>
+        <v>1636.926156480991</v>
       </c>
       <c r="P31" t="n">
-        <v>1868.112853383397</v>
+        <v>1868.112853383398</v>
       </c>
       <c r="Q31" t="n">
-        <v>1944.739458816852</v>
+        <v>1944.739458816853</v>
       </c>
       <c r="R31" t="n">
-        <v>1944.739458816852</v>
+        <v>1854.37006765947</v>
       </c>
       <c r="S31" t="n">
-        <v>1752.844691442125</v>
+        <v>1662.475300284743</v>
       </c>
       <c r="T31" t="n">
-        <v>1531.026863124468</v>
+        <v>1440.657471967086</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.135298396277</v>
+        <v>1440.657471967086</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.45081019039</v>
+        <v>1185.972983761199</v>
       </c>
       <c r="W31" t="n">
-        <v>726.0336401534292</v>
+        <v>1179.065913865978</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0440892554119</v>
+        <v>951.0763629679612</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2515101118818</v>
+        <v>730.2837838244313</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2362.460229013696</v>
+        <v>2362.460229013695</v>
       </c>
       <c r="C32" t="n">
         <v>1995.294652027118</v>
@@ -6686,64 +6686,64 @@
         <v>1254.834580729791</v>
       </c>
       <c r="F32" t="n">
-        <v>845.6456158940173</v>
+        <v>845.6456158940177</v>
       </c>
       <c r="G32" t="n">
-        <v>432.3433849733509</v>
+        <v>432.3433849733515</v>
       </c>
       <c r="H32" t="n">
-        <v>136.2830709674048</v>
+        <v>136.2830709674046</v>
       </c>
       <c r="I32" t="n">
-        <v>95.05296162230519</v>
+        <v>95.05296162230516</v>
       </c>
       <c r="J32" t="n">
-        <v>281.7093358794962</v>
+        <v>449.1149848998492</v>
       </c>
       <c r="K32" t="n">
-        <v>612.1973734635269</v>
+        <v>779.6030224838801</v>
       </c>
       <c r="L32" t="n">
-        <v>1472.583372100728</v>
+        <v>1639.989021121082</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.535119691499</v>
+        <v>2168.922370553948</v>
       </c>
       <c r="N32" t="n">
-        <v>3421.614427247679</v>
+        <v>2966.417761979154</v>
       </c>
       <c r="O32" t="n">
-        <v>4058.809502347174</v>
+        <v>3464.977684829846</v>
       </c>
       <c r="P32" t="n">
-        <v>4449.81786104981</v>
+        <v>4174.56676462225</v>
       </c>
       <c r="Q32" t="n">
-        <v>4695.276107896168</v>
+        <v>4630.216852221914</v>
       </c>
       <c r="R32" t="n">
-        <v>4752.64808111526</v>
+        <v>4752.648081115258</v>
       </c>
       <c r="S32" t="n">
-        <v>4643.545454200655</v>
+        <v>4643.545454200653</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.247676589113</v>
+        <v>4439.247676589112</v>
       </c>
       <c r="U32" t="n">
-        <v>4187.512002159225</v>
+        <v>4187.512002159223</v>
       </c>
       <c r="V32" t="n">
-        <v>3858.246054769488</v>
+        <v>3858.246054769486</v>
       </c>
       <c r="W32" t="n">
-        <v>3507.274339453208</v>
+        <v>3507.274339453206</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.605521145962</v>
+        <v>3135.605521145961</v>
       </c>
       <c r="Y32" t="n">
-        <v>2747.263129123984</v>
+        <v>2747.263129123983</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>104.3244636748646</v>
       </c>
       <c r="I33" t="n">
-        <v>95.05296162230519</v>
+        <v>95.05296162230516</v>
       </c>
       <c r="J33" t="n">
         <v>187.4063724487178</v>
@@ -6798,7 +6798,7 @@
         <v>2416.119410247878</v>
       </c>
       <c r="Q33" t="n">
-        <v>2584.190743576017</v>
+        <v>2571.97230522501</v>
       </c>
       <c r="R33" t="n">
         <v>2584.190743576017</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.05296162230519</v>
+        <v>240.1459691663815</v>
       </c>
       <c r="C34" t="n">
-        <v>95.05296162230519</v>
+        <v>240.1459691663815</v>
       </c>
       <c r="D34" t="n">
-        <v>95.05296162230519</v>
+        <v>240.1459691663815</v>
       </c>
       <c r="E34" t="n">
-        <v>95.05296162230519</v>
+        <v>240.1459691663815</v>
       </c>
       <c r="F34" t="n">
-        <v>95.05296162230519</v>
+        <v>95.05296162230516</v>
       </c>
       <c r="G34" t="n">
-        <v>95.05296162230519</v>
+        <v>95.05296162230516</v>
       </c>
       <c r="H34" t="n">
-        <v>95.05296162230519</v>
+        <v>95.05296162230516</v>
       </c>
       <c r="I34" t="n">
-        <v>95.05296162230519</v>
+        <v>95.05296162230516</v>
       </c>
       <c r="J34" t="n">
-        <v>141.1062285362621</v>
+        <v>141.1062285362625</v>
       </c>
       <c r="K34" t="n">
-        <v>345.4897494949398</v>
+        <v>345.4897494949402</v>
       </c>
       <c r="L34" t="n">
-        <v>662.0641998572739</v>
+        <v>662.0641998572744</v>
       </c>
       <c r="M34" t="n">
-        <v>1006.140956425134</v>
+        <v>1006.140956425135</v>
       </c>
       <c r="N34" t="n">
-        <v>1347.51283013718</v>
+        <v>1347.512830137181</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.943157914169</v>
+        <v>1646.94315791417</v>
       </c>
       <c r="P34" t="n">
-        <v>1879.891035665329</v>
+        <v>1879.89103566533</v>
       </c>
       <c r="Q34" t="n">
-        <v>1958.278821947536</v>
+        <v>1958.278821947538</v>
       </c>
       <c r="R34" t="n">
-        <v>1958.025811454548</v>
+        <v>1869.706370743989</v>
       </c>
       <c r="S34" t="n">
-        <v>1767.927984033655</v>
+        <v>1679.608543323096</v>
       </c>
       <c r="T34" t="n">
-        <v>1547.907095669832</v>
+        <v>1459.587654959272</v>
       </c>
       <c r="U34" t="n">
-        <v>1260.600514967771</v>
+        <v>1179.500911567663</v>
       </c>
       <c r="V34" t="n">
-        <v>1007.712966715718</v>
+        <v>926.6133633156097</v>
       </c>
       <c r="W34" t="n">
-        <v>720.0927366325909</v>
+        <v>638.9931332324832</v>
       </c>
       <c r="X34" t="n">
-        <v>493.9001256884071</v>
+        <v>638.9931332324832</v>
       </c>
       <c r="Y34" t="n">
-        <v>274.904486498711</v>
+        <v>419.9974940427871</v>
       </c>
     </row>
     <row r="35">
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2030.021258270717</v>
+        <v>2030.021258270716</v>
       </c>
       <c r="C35" t="n">
         <v>1709.050499787876</v>
       </c>
       <c r="D35" t="n">
-        <v>1398.776559638697</v>
+        <v>1398.776559638696</v>
       </c>
       <c r="E35" t="n">
-        <v>1060.980065498024</v>
+        <v>1060.980065498023</v>
       </c>
       <c r="F35" t="n">
-        <v>697.9859191659871</v>
+        <v>697.9859191659859</v>
       </c>
       <c r="G35" t="n">
         <v>330.8785067490567</v>
       </c>
       <c r="H35" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="I35" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J35" t="n">
-        <v>415.9916075688142</v>
+        <v>267.6693855040387</v>
       </c>
       <c r="K35" t="n">
-        <v>746.479645152845</v>
+        <v>598.1574230880694</v>
       </c>
       <c r="L35" t="n">
-        <v>1193.381041385101</v>
+        <v>1045.058819320325</v>
       </c>
       <c r="M35" t="n">
-        <v>1722.314390817967</v>
+        <v>1573.992168753192</v>
       </c>
       <c r="N35" t="n">
-        <v>2264.420243206283</v>
+        <v>2116.098021141507</v>
       </c>
       <c r="O35" t="n">
-        <v>2762.980166056975</v>
+        <v>2991.650123442317</v>
       </c>
       <c r="P35" t="n">
-        <v>3472.569245849379</v>
+        <v>3701.239203234721</v>
       </c>
       <c r="Q35" t="n">
-        <v>3928.219333449043</v>
+        <v>3946.697450081079</v>
       </c>
       <c r="R35" t="n">
-        <v>4050.650562342386</v>
+        <v>4050.650562342385</v>
       </c>
       <c r="S35" t="n">
-        <v>3987.742753931518</v>
+        <v>3987.742753931516</v>
       </c>
       <c r="T35" t="n">
-        <v>3829.639794823713</v>
+        <v>3829.639794823712</v>
       </c>
       <c r="U35" t="n">
         <v>3624.09893889756</v>
       </c>
       <c r="V35" t="n">
-        <v>3341.027810011561</v>
+        <v>3341.02781001156</v>
       </c>
       <c r="W35" t="n">
         <v>3036.250913199017</v>
@@ -6980,7 +6980,7 @@
         <v>2710.776913395508</v>
       </c>
       <c r="Y35" t="n">
-        <v>2368.629339877268</v>
+        <v>2368.629339877267</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H36" t="n">
-        <v>90.28451329940712</v>
+        <v>90.2845132994071</v>
       </c>
       <c r="I36" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J36" t="n">
         <v>173.3664220732603</v>
@@ -7020,19 +7020,19 @@
         <v>409.3679357353759</v>
       </c>
       <c r="L36" t="n">
-        <v>773.0236364049673</v>
+        <v>785.2420747559745</v>
       </c>
       <c r="M36" t="n">
-        <v>1216.749554727366</v>
+        <v>1228.967993078374</v>
       </c>
       <c r="N36" t="n">
-        <v>1686.628222675829</v>
+        <v>1698.846661026836</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.255610400967</v>
+        <v>2106.474048751974</v>
       </c>
       <c r="P36" t="n">
-        <v>2402.079459872421</v>
+        <v>2414.297898223428</v>
       </c>
       <c r="Q36" t="n">
         <v>2570.15079320056</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>770.6512699940224</v>
+        <v>770.6512699940226</v>
       </c>
       <c r="C37" t="n">
-        <v>649.7068455236865</v>
+        <v>649.7068455236866</v>
       </c>
       <c r="D37" t="n">
-        <v>547.5819645689218</v>
+        <v>547.5819645689219</v>
       </c>
       <c r="E37" t="n">
-        <v>447.6606294440996</v>
+        <v>447.6606294440997</v>
       </c>
       <c r="F37" t="n">
         <v>348.7624404037603</v>
       </c>
       <c r="G37" t="n">
-        <v>229.0393762411775</v>
+        <v>229.0393762411776</v>
       </c>
       <c r="H37" t="n">
         <v>130.7073815258293</v>
       </c>
       <c r="I37" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J37" t="n">
-        <v>172.3418197763174</v>
+        <v>172.3418197763179</v>
       </c>
       <c r="K37" t="n">
-        <v>422.0008823505078</v>
+        <v>422.0008823505083</v>
       </c>
       <c r="L37" t="n">
-        <v>783.8508743283545</v>
+        <v>783.850874328355</v>
       </c>
       <c r="M37" t="n">
         <v>1173.203172511728</v>
@@ -7126,19 +7126,19 @@
         <v>1946.336493019126</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.224730820802</v>
+        <v>1705.224730820803</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.532001072486</v>
+        <v>1498.532001072487</v>
       </c>
       <c r="W37" t="n">
         <v>1257.106589493097</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.10879705265</v>
+        <v>1077.108797052651</v>
       </c>
       <c r="Y37" t="n">
-        <v>904.3079763666912</v>
+        <v>904.3079763666914</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.021258270717</v>
+        <v>2030.021258270716</v>
       </c>
       <c r="C38" t="n">
-        <v>1709.050499787876</v>
+        <v>1709.050499787875</v>
       </c>
       <c r="D38" t="n">
         <v>1398.776559638696</v>
       </c>
       <c r="E38" t="n">
-        <v>1060.980065498023</v>
+        <v>1060.980065498022</v>
       </c>
       <c r="F38" t="n">
-        <v>697.9859191659866</v>
+        <v>697.9859191659857</v>
       </c>
       <c r="G38" t="n">
         <v>330.8785067490567</v>
@@ -7172,37 +7172,37 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J38" t="n">
-        <v>435.0750345243918</v>
+        <v>267.6693855040387</v>
       </c>
       <c r="K38" t="n">
-        <v>765.5630721084226</v>
+        <v>598.1574230880694</v>
       </c>
       <c r="L38" t="n">
-        <v>1212.464468340678</v>
+        <v>1342.194460744521</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.397817773545</v>
+        <v>2316.146208335292</v>
       </c>
       <c r="N38" t="n">
-        <v>2283.50367016186</v>
+        <v>2858.252060723607</v>
       </c>
       <c r="O38" t="n">
-        <v>3159.05577246267</v>
+        <v>3356.811983574299</v>
       </c>
       <c r="P38" t="n">
-        <v>3550.064131165306</v>
+        <v>3747.820342276935</v>
       </c>
       <c r="Q38" t="n">
-        <v>3928.219333449042</v>
+        <v>3993.278589123294</v>
       </c>
       <c r="R38" t="n">
         <v>4050.650562342385</v>
       </c>
       <c r="S38" t="n">
-        <v>3987.742753931517</v>
+        <v>3987.742753931516</v>
       </c>
       <c r="T38" t="n">
-        <v>3829.639794823712</v>
+        <v>3829.639794823711</v>
       </c>
       <c r="U38" t="n">
         <v>3624.098938897559</v>
@@ -7211,7 +7211,7 @@
         <v>3341.02781001156</v>
       </c>
       <c r="W38" t="n">
-        <v>3036.250913199017</v>
+        <v>3036.250913199016</v>
       </c>
       <c r="X38" t="n">
         <v>2710.776913395508</v>
@@ -7263,10 +7263,10 @@
         <v>1216.749554727366</v>
       </c>
       <c r="N39" t="n">
-        <v>1698.846661026836</v>
+        <v>1686.628222675829</v>
       </c>
       <c r="O39" t="n">
-        <v>2106.474048751974</v>
+        <v>2094.255610400967</v>
       </c>
       <c r="P39" t="n">
         <v>2414.297898223428</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>770.6512699940224</v>
+        <v>770.6512699940226</v>
       </c>
       <c r="C40" t="n">
-        <v>649.7068455236865</v>
+        <v>649.7068455236866</v>
       </c>
       <c r="D40" t="n">
-        <v>547.5819645689218</v>
+        <v>547.5819645689219</v>
       </c>
       <c r="E40" t="n">
-        <v>447.6606294440996</v>
+        <v>447.6606294440997</v>
       </c>
       <c r="F40" t="n">
         <v>348.7624404037603</v>
       </c>
       <c r="G40" t="n">
-        <v>229.0393762411775</v>
+        <v>229.0393762411776</v>
       </c>
       <c r="H40" t="n">
         <v>130.7073815258293</v>
@@ -7336,7 +7336,7 @@
         <v>422.0008823505077</v>
       </c>
       <c r="L40" t="n">
-        <v>783.8508743283548</v>
+        <v>783.8508743283544</v>
       </c>
       <c r="M40" t="n">
         <v>1173.203172511728</v>
@@ -7363,19 +7363,19 @@
         <v>1946.336493019126</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.224730820802</v>
+        <v>1705.224730820803</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.532001072486</v>
+        <v>1498.532001072487</v>
       </c>
       <c r="W40" t="n">
         <v>1257.106589493097</v>
       </c>
       <c r="X40" t="n">
-        <v>1077.10879705265</v>
+        <v>1077.108797052651</v>
       </c>
       <c r="Y40" t="n">
-        <v>904.3079763666912</v>
+        <v>904.3079763666914</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2019.885040747821</v>
+        <v>1523.210382125957</v>
       </c>
       <c r="C41" t="n">
-        <v>1698.91428226498</v>
+        <v>1202.239623643116</v>
       </c>
       <c r="D41" t="n">
-        <v>1388.640342115801</v>
+        <v>891.9656834939362</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.843847975128</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="F41" t="n">
-        <v>687.8497016430911</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="G41" t="n">
         <v>320.7422892261615</v>
       </c>
       <c r="H41" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="I41" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J41" t="n">
         <v>257.5331679811435</v>
@@ -7427,34 +7427,34 @@
         <v>2604.521726469304</v>
       </c>
       <c r="P41" t="n">
-        <v>3241.009466132175</v>
+        <v>3175.950210457923</v>
       </c>
       <c r="Q41" t="n">
-        <v>3486.467712978534</v>
+        <v>3421.408457304282</v>
       </c>
       <c r="R41" t="n">
-        <v>3543.839686197624</v>
+        <v>3543.839686197625</v>
       </c>
       <c r="S41" t="n">
-        <v>3543.839686197624</v>
+        <v>3480.931877786757</v>
       </c>
       <c r="T41" t="n">
-        <v>3543.839686197624</v>
+        <v>3322.828918678953</v>
       </c>
       <c r="U41" t="n">
-        <v>3543.839686197624</v>
+        <v>3117.2880627528</v>
       </c>
       <c r="V41" t="n">
-        <v>3330.891592488664</v>
+        <v>2834.2169338668</v>
       </c>
       <c r="W41" t="n">
-        <v>3026.114695676121</v>
+        <v>2529.440037054257</v>
       </c>
       <c r="X41" t="n">
-        <v>2700.640695872612</v>
+        <v>2203.966037250748</v>
       </c>
       <c r="Y41" t="n">
-        <v>2358.493122354372</v>
+        <v>1861.818463732508</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>170.7882675660274</v>
       </c>
       <c r="H42" t="n">
-        <v>80.14829577651189</v>
+        <v>80.1482957765119</v>
       </c>
       <c r="I42" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J42" t="n">
-        <v>175.448642901372</v>
+        <v>163.2302045503651</v>
       </c>
       <c r="K42" t="n">
-        <v>411.4501565634876</v>
+        <v>399.2317182124807</v>
       </c>
       <c r="L42" t="n">
-        <v>775.105857233079</v>
+        <v>762.8874188820721</v>
       </c>
       <c r="M42" t="n">
-        <v>1218.831775555478</v>
+        <v>1206.613337204471</v>
       </c>
       <c r="N42" t="n">
-        <v>1688.71044350394</v>
+        <v>1676.492005152934</v>
       </c>
       <c r="O42" t="n">
         <v>2096.337831229079</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>760.5150524711266</v>
+        <v>760.5150524711272</v>
       </c>
       <c r="C43" t="n">
-        <v>639.5706280007906</v>
+        <v>639.5706280007912</v>
       </c>
       <c r="D43" t="n">
-        <v>537.4457470460259</v>
+        <v>537.4457470460264</v>
       </c>
       <c r="E43" t="n">
-        <v>437.5244119212038</v>
+        <v>437.5244119212043</v>
       </c>
       <c r="F43" t="n">
-        <v>338.6262228808644</v>
+        <v>338.6262228808649</v>
       </c>
       <c r="G43" t="n">
         <v>218.9031587182822</v>
       </c>
       <c r="H43" t="n">
-        <v>120.5711640029341</v>
+        <v>120.571164002934</v>
       </c>
       <c r="I43" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J43" t="n">
         <v>162.2056022534222</v>
       </c>
       <c r="K43" t="n">
-        <v>411.8646648276125</v>
+        <v>411.8646648276129</v>
       </c>
       <c r="L43" t="n">
-        <v>773.7146568054592</v>
+        <v>773.7146568054595</v>
       </c>
       <c r="M43" t="n">
-        <v>1163.066954988832</v>
+        <v>1163.066954988833</v>
       </c>
       <c r="N43" t="n">
-        <v>1549.71437031639</v>
+        <v>1549.714370316391</v>
       </c>
       <c r="O43" t="n">
         <v>1894.420239708893</v>
@@ -7588,16 +7588,16 @@
         <v>2172.643659075565</v>
       </c>
       <c r="Q43" t="n">
-        <v>2296.306986973285</v>
+        <v>2296.306986973286</v>
       </c>
       <c r="R43" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S43" t="n">
-        <v>2110.026345356317</v>
+        <v>2110.026345356318</v>
       </c>
       <c r="T43" t="n">
-        <v>1936.20027549623</v>
+        <v>1936.200275496231</v>
       </c>
       <c r="U43" t="n">
         <v>1695.088513297907</v>
@@ -7606,13 +7606,13 @@
         <v>1488.395783549591</v>
       </c>
       <c r="W43" t="n">
-        <v>1246.970371970201</v>
+        <v>1246.970371970202</v>
       </c>
       <c r="X43" t="n">
         <v>1066.972579529755</v>
       </c>
       <c r="Y43" t="n">
-        <v>894.1717588437954</v>
+        <v>894.1717588437959</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1709.611100598641</v>
+        <v>1523.210382125957</v>
       </c>
       <c r="C44" t="n">
-        <v>1388.640342115801</v>
+        <v>1202.239623643116</v>
       </c>
       <c r="D44" t="n">
-        <v>1388.640342115801</v>
+        <v>891.9656834939362</v>
       </c>
       <c r="E44" t="n">
-        <v>1050.843847975127</v>
+        <v>800.9783524729185</v>
       </c>
       <c r="F44" t="n">
-        <v>687.8497016430908</v>
+        <v>437.984206140882</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7422892261615</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="H44" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="I44" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J44" t="n">
         <v>257.5331679811435</v>
@@ -7664,34 +7664,34 @@
         <v>2604.521726469304</v>
       </c>
       <c r="P44" t="n">
-        <v>3241.009466132175</v>
+        <v>3241.009466132176</v>
       </c>
       <c r="Q44" t="n">
-        <v>3486.467712978534</v>
+        <v>3486.467712978535</v>
       </c>
       <c r="R44" t="n">
-        <v>3543.839686197624</v>
+        <v>3543.839686197625</v>
       </c>
       <c r="S44" t="n">
-        <v>3543.839686197624</v>
+        <v>3480.931877786757</v>
       </c>
       <c r="T44" t="n">
-        <v>3509.229637151637</v>
+        <v>3322.828918678953</v>
       </c>
       <c r="U44" t="n">
-        <v>3303.688781225484</v>
+        <v>3117.2880627528</v>
       </c>
       <c r="V44" t="n">
-        <v>3020.617652339485</v>
+        <v>2834.2169338668</v>
       </c>
       <c r="W44" t="n">
-        <v>2715.840755526941</v>
+        <v>2529.440037054257</v>
       </c>
       <c r="X44" t="n">
-        <v>2390.366755723433</v>
+        <v>2203.966037250748</v>
       </c>
       <c r="Y44" t="n">
-        <v>2048.219182205192</v>
+        <v>1861.818463732507</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>170.7882675660274</v>
       </c>
       <c r="H45" t="n">
-        <v>80.14829577651189</v>
+        <v>80.1482957765119</v>
       </c>
       <c r="I45" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J45" t="n">
         <v>163.2302045503651</v>
@@ -7746,7 +7746,7 @@
         <v>2391.943242349525</v>
       </c>
       <c r="Q45" t="n">
-        <v>2560.014575677664</v>
+        <v>2547.796137326657</v>
       </c>
       <c r="R45" t="n">
         <v>2560.014575677664</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>760.5150524711272</v>
+        <v>760.5150524711275</v>
       </c>
       <c r="C46" t="n">
-        <v>639.5706280007913</v>
+        <v>639.5706280007915</v>
       </c>
       <c r="D46" t="n">
-        <v>537.4457470460266</v>
+        <v>537.4457470460268</v>
       </c>
       <c r="E46" t="n">
-        <v>437.5244119212044</v>
+        <v>437.5244119212047</v>
       </c>
       <c r="F46" t="n">
-        <v>338.626222880865</v>
+        <v>338.6262228808652</v>
       </c>
       <c r="G46" t="n">
-        <v>218.9031587182823</v>
+        <v>218.9031587182824</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5711640029341</v>
+        <v>120.5711640029342</v>
       </c>
       <c r="I46" t="n">
-        <v>70.87679372395249</v>
+        <v>70.8767937239525</v>
       </c>
       <c r="J46" t="n">
-        <v>162.2056022534223</v>
+        <v>162.2056022534221</v>
       </c>
       <c r="K46" t="n">
-        <v>411.8646648276126</v>
+        <v>411.8646648276124</v>
       </c>
       <c r="L46" t="n">
-        <v>773.7146568054593</v>
+        <v>773.7146568054592</v>
       </c>
       <c r="M46" t="n">
-        <v>1163.066954988833</v>
+        <v>1163.066954988832</v>
       </c>
       <c r="N46" t="n">
-        <v>1549.714370316391</v>
+        <v>1549.71437031639</v>
       </c>
       <c r="O46" t="n">
-        <v>1894.420239708892</v>
+        <v>1894.420239708893</v>
       </c>
       <c r="P46" t="n">
-        <v>2172.643659075564</v>
+        <v>2172.643659075565</v>
       </c>
       <c r="Q46" t="n">
         <v>2296.306986973285</v>
       </c>
       <c r="R46" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S46" t="n">
         <v>2110.026345356317</v>
       </c>
       <c r="T46" t="n">
-        <v>1936.20027549623</v>
+        <v>1936.200275496231</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.088513297906</v>
+        <v>1695.088513297908</v>
       </c>
       <c r="V46" t="n">
-        <v>1488.39578354959</v>
+        <v>1488.395783549592</v>
       </c>
       <c r="W46" t="n">
-        <v>1246.9703719702</v>
+        <v>1246.970371970202</v>
       </c>
       <c r="X46" t="n">
-        <v>1066.972579529754</v>
+        <v>1066.972579529756</v>
       </c>
       <c r="Y46" t="n">
-        <v>894.1717588437959</v>
+        <v>894.1717588437964</v>
       </c>
     </row>
   </sheetData>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.3646406817305</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
         <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>238.109041496981</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>145.4304255215856</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>78.86235549482944</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>78.86235549482967</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>12.341856920209</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.021691808656755</v>
+        <v>13.36354872886544</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>247.9589706669045</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>247.9589706669034</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>12.341856920209</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>12.34185692020895</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>149.8204263280542</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>368.238939200446</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>12.34185692020932</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>12.34185692020941</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9404,25 +9404,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>134.0373287246226</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0403963675178</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>12.34185692020932</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.021691808656755</v>
+        <v>13.36354872886639</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>34.2722100875535</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0403963675188</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.34185692020932</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>12.34185692020935</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>232.7242500488688</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>167.261870258901</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>12.34185692020927</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.021691808656755</v>
+        <v>13.36354872886639</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>167.0078301758885</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>253.3432753448905</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.34185692020964</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.021691808656755</v>
+        <v>13.36354872886639</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>257.9692313503948</v>
       </c>
       <c r="O32" t="n">
-        <v>140.0355073220234</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.34185692020964</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.021691808656755</v>
+        <v>13.36354872886639</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>149.820426328056</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>47.05165559819632</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>12.3418569202093</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.34185692020964</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>1.021691808656755</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>300.1370115395918</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>134.0373287246232</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>12.34185692020941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>12.34185692020964</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>247.958970666904</v>
+        <v>182.2425507939225</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>12.34185692020898</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>12.34185692020895</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>247.958970666904</v>
+        <v>247.9589706669049</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.34185692020918</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.021691808656755</v>
+        <v>13.36354872886593</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.3668405471868</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.27873032675967</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>182.0623411617011</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>157.28938283638</v>
       </c>
     </row>
     <row r="12">
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.3642048687162</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>132.3437071669303</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.27873032675967</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.5219295167264</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>203.4854473668909</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>69.42180482527024</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>86.17902645051073</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0376743939522</v>
+        <v>166.0376743939521</v>
       </c>
       <c r="H28" t="n">
-        <v>144.86051564119</v>
+        <v>144.8605156411899</v>
       </c>
       <c r="I28" t="n">
-        <v>96.70926744918705</v>
+        <v>96.70926744918702</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5996500344805</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>210.4637527013136</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0376743939522</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.86051564119</v>
+        <v>144.8605156411899</v>
       </c>
       <c r="I31" t="n">
-        <v>96.70926744918705</v>
+        <v>96.709267449187</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.46569724580911</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>27.92983636842666</v>
+        <v>286.2124854493359</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>279.6849991403229</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.4678505443322</v>
+        <v>165.4678505443321</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8365024639168</v>
+        <v>146.8365024639166</v>
       </c>
       <c r="E34" t="n">
-        <v>144.6549920922736</v>
+        <v>144.6549920922735</v>
       </c>
       <c r="F34" t="n">
-        <v>143.6420774686356</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.2587038396566</v>
+        <v>164.2587038396564</v>
       </c>
       <c r="H34" t="n">
-        <v>143.0815450868944</v>
+        <v>143.0815450868943</v>
       </c>
       <c r="I34" t="n">
-        <v>94.93029689489147</v>
+        <v>94.93029689489136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>87.43624630345508</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>7.14763893734721</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>223.9306848347414</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25634,10 +25634,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>132.3437071669294</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.3642048687162</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.27873032675968</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.5219295167264</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>203.4854473668909</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>69.42180482526908</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.1712007476877</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>244.3410714884594</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.27873032675967</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>122.2579809611985</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602222.2986334581</v>
+        <v>602222.2986334582</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602222.2986334581</v>
+        <v>602222.2986334583</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645284.0482332949</v>
+        <v>645284.048233295</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645288.9392233088</v>
+        <v>645288.9392233087</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>602222.2986334583</v>
+        <v>602222.2986334584</v>
       </c>
     </row>
     <row r="16">
@@ -26314,13 +26314,13 @@
         <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
-        <v>820371.005199119</v>
+        <v>820371.0051991189</v>
       </c>
       <c r="E2" t="n">
-        <v>781901.8200662457</v>
+        <v>781901.8200662456</v>
       </c>
       <c r="F2" t="n">
         <v>781901.8200662456</v>
@@ -26329,31 +26329,31 @@
         <v>821041.7698642832</v>
       </c>
       <c r="H2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="I2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="J2" t="n">
+        <v>793856.4827630455</v>
+      </c>
+      <c r="K2" t="n">
+        <v>793856.4827630455</v>
+      </c>
+      <c r="L2" t="n">
+        <v>794874.372711626</v>
+      </c>
+      <c r="M2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="I2" t="n">
-        <v>821041.7698642829</v>
-      </c>
-      <c r="J2" t="n">
-        <v>793856.4827630456</v>
-      </c>
-      <c r="K2" t="n">
-        <v>793856.4827630456</v>
-      </c>
-      <c r="L2" t="n">
-        <v>794874.3727116258</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642835</v>
-      </c>
       <c r="N2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>781901.8200662459</v>
+        <v>781901.820066246</v>
       </c>
       <c r="P2" t="n">
-        <v>781901.8200662457</v>
+        <v>781901.820066246</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34727.31474703419</v>
+        <v>34727.31474703418</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47717.43581249685</v>
+        <v>47717.43581249679</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1423.176443436467</v>
+        <v>1423.176443436543</v>
       </c>
       <c r="M3" t="n">
         <v>211922.3670246716</v>
@@ -26424,40 +26424,40 @@
         <v>419946.1207682426</v>
       </c>
       <c r="E4" t="n">
-        <v>64231.52484240749</v>
+        <v>64231.52484240745</v>
       </c>
       <c r="F4" t="n">
-        <v>64231.52484240749</v>
+        <v>64231.5248424075</v>
       </c>
       <c r="G4" t="n">
-        <v>78268.55407821016</v>
+        <v>78268.55407821017</v>
       </c>
       <c r="H4" t="n">
+        <v>78268.55407821017</v>
+      </c>
+      <c r="I4" t="n">
+        <v>78268.55407821017</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50683.82075751976</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50683.8207575198</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51719.77454469448</v>
+      </c>
+      <c r="M4" t="n">
         <v>78268.55407821015</v>
       </c>
-      <c r="I4" t="n">
-        <v>78268.55407821016</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50683.8207575198</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50683.82075751982</v>
-      </c>
-      <c r="L4" t="n">
-        <v>51719.77454469442</v>
-      </c>
-      <c r="M4" t="n">
-        <v>78268.5540782102</v>
-      </c>
       <c r="N4" t="n">
-        <v>78268.55407821017</v>
+        <v>78268.55407821015</v>
       </c>
       <c r="O4" t="n">
-        <v>64231.52484240751</v>
+        <v>64231.52484240753</v>
       </c>
       <c r="P4" t="n">
-        <v>64231.52484240751</v>
+        <v>64231.5248424075</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>81474.31746965459</v>
+        <v>81474.31746965462</v>
       </c>
       <c r="F5" t="n">
-        <v>81474.31746965459</v>
+        <v>81474.3174696546</v>
       </c>
       <c r="G5" t="n">
         <v>89177.84278705496</v>
@@ -26488,28 +26488,28 @@
         <v>89177.84278705496</v>
       </c>
       <c r="I5" t="n">
-        <v>89177.84278705498</v>
+        <v>89177.84278705496</v>
       </c>
       <c r="J5" t="n">
-        <v>96271.99570314688</v>
+        <v>96271.99570314685</v>
       </c>
       <c r="K5" t="n">
-        <v>96271.99570314688</v>
+        <v>96271.99570314685</v>
       </c>
       <c r="L5" t="n">
-        <v>96003.4883975799</v>
+        <v>96003.48839757989</v>
       </c>
       <c r="M5" t="n">
-        <v>89177.84278705498</v>
+        <v>89177.84278705496</v>
       </c>
       <c r="N5" t="n">
         <v>89177.84278705496</v>
       </c>
       <c r="O5" t="n">
-        <v>81474.3174696546</v>
+        <v>81474.31746965462</v>
       </c>
       <c r="P5" t="n">
-        <v>81474.3174696546</v>
+        <v>81474.31746965462</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365500.969827507</v>
+        <v>365496.5562496389</v>
       </c>
       <c r="C6" t="n">
-        <v>365500.969827507</v>
+        <v>365496.5562496391</v>
       </c>
       <c r="D6" t="n">
-        <v>364243.3147610326</v>
+        <v>364241.6378493696</v>
       </c>
       <c r="E6" t="n">
-        <v>-534531.8292548429</v>
+        <v>-534629.6791293384</v>
       </c>
       <c r="F6" t="n">
-        <v>636195.9777541836</v>
+        <v>636098.1278796885</v>
       </c>
       <c r="G6" t="n">
         <v>618868.0582519838</v>
       </c>
       <c r="H6" t="n">
-        <v>653595.3729990181</v>
+        <v>653595.3729990184</v>
       </c>
       <c r="I6" t="n">
-        <v>653595.3729990178</v>
+        <v>653595.3729990182</v>
       </c>
       <c r="J6" t="n">
-        <v>599183.2304898821</v>
+        <v>599115.2672721288</v>
       </c>
       <c r="K6" t="n">
-        <v>646900.6663023789</v>
+        <v>646832.7030846257</v>
       </c>
       <c r="L6" t="n">
-        <v>645727.933325915</v>
+        <v>645662.5148330334</v>
       </c>
       <c r="M6" t="n">
-        <v>441673.0059743467</v>
+        <v>441673.0059743464</v>
       </c>
       <c r="N6" t="n">
-        <v>653595.3729990181</v>
+        <v>653595.3729990182</v>
       </c>
       <c r="O6" t="n">
-        <v>636195.9777541837</v>
+        <v>636098.1278796887</v>
       </c>
       <c r="P6" t="n">
-        <v>636195.9777541836</v>
+        <v>636098.1278796887</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G2" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H2" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I2" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="M2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26796,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>885.9599215494059</v>
+        <v>885.9599215494062</v>
       </c>
       <c r="F4" t="n">
-        <v>885.9599215494059</v>
+        <v>885.9599215494062</v>
       </c>
       <c r="G4" t="n">
         <v>1012.662640585596</v>
@@ -26817,7 +26817,7 @@
         <v>1195.038066020526</v>
       </c>
       <c r="L4" t="n">
-        <v>1188.162020278815</v>
+        <v>1188.162020278814</v>
       </c>
       <c r="M4" t="n">
         <v>1012.662640585596</v>
@@ -26826,10 +26826,10 @@
         <v>1012.662640585596</v>
       </c>
       <c r="O4" t="n">
-        <v>885.9599215494061</v>
+        <v>885.9599215494063</v>
       </c>
       <c r="P4" t="n">
-        <v>885.9599215494061</v>
+        <v>885.9599215494063</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295679</v>
       </c>
       <c r="M2" t="n">
-        <v>45.73287031869967</v>
+        <v>45.73287031869954</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>879.0838758076944</v>
+        <v>879.0838758076948</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>126.7027190361902</v>
+        <v>126.70271903619</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>182.3754254349301</v>
+        <v>182.3754254349299</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>703.584496114476</v>
+        <v>703.5844961144765</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>879.0838758076944</v>
+        <v>879.0838758076948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>126.7027190361902</v>
+        <v>126.70271903619</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>348.6266205313835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>84.0868030883735</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>165.6267500145384</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>152.1154945730653</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,10 +28062,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>282.984049002298</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I11" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I14" t="n">
         <v>42.59677880594418</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299593</v>
       </c>
       <c r="K16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.5118408729949</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I17" t="n">
         <v>42.59677880594418</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="J19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="K19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="L19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="M19" t="n">
-        <v>47.51184087299578</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="N19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="O19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299561</v>
       </c>
       <c r="P19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="R19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="S19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I20" t="n">
         <v>42.59677880594418</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="J22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="K22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="L22" t="n">
         <v>47.51184087299566</v>
       </c>
       <c r="M22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="N22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="O22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="P22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="R22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="S22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I23" t="n">
         <v>42.59677880594418</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="J25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="K25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="L25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="M25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="N25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="O25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="P25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="R25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="S25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.51184087299525</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="C32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="D32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="E32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="F32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="G32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="H32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="I32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="T32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="U32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="V32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="W32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="X32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="C34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="D34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="E34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="F34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="G34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="H34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="I34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="J34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="K34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="L34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="M34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="N34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="O34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="P34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="R34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="S34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="T34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="U34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="V34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="W34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295703</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I35" t="n">
         <v>42.59677880594418</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299583</v>
       </c>
       <c r="K37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M37" t="n">
-        <v>47.51184087299566</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I38" t="n">
         <v>42.59677880594418</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L40" t="n">
-        <v>47.51184087299566</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299582</v>
       </c>
       <c r="R40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I41" t="n">
         <v>42.59677880594418</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="C44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="D44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="E44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="F44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="G44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="H44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="I44" t="n">
         <v>42.59677880594418</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="T44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="U44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="V44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="W44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="X44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="C46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="D46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="E46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="F46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="G46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="H46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="I46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="J46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="K46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="L46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="M46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="N46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="O46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="P46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="R46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="S46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="T46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="U46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="V46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="W46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="X46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299522</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H11" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I11" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J11" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K11" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L11" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M11" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N11" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O11" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P11" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q11" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R11" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S11" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T11" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H12" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I12" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J12" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K12" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L12" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N12" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O12" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P12" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q12" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R12" t="n">
         <v>144.6578121553072</v>
@@ -31868,7 +31868,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T12" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U12" t="n">
         <v>0.1532825079351235</v>
@@ -31914,7 +31914,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I13" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J13" t="n">
         <v>138.0986609906166</v>
@@ -31932,22 +31932,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O13" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P13" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q13" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R13" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S13" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T13" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U13" t="n">
         <v>0.1065439071549056</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>6.876045741711437</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743297</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>357.6384073510546</v>
+        <v>357.6384073510547</v>
       </c>
       <c r="K11" t="n">
-        <v>333.8263005899301</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L11" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M11" t="n">
-        <v>613.1384660330785</v>
+        <v>534.2761105382493</v>
       </c>
       <c r="N11" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O11" t="n">
-        <v>503.5958816673657</v>
+        <v>582.4582371621955</v>
       </c>
       <c r="P11" t="n">
-        <v>394.957938083471</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.9376230771298</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R11" t="n">
-        <v>57.95148810009181</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>105.6281304822419</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L12" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M12" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N12" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O12" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P12" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.34185692020871</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>365.5050424018654</v>
       </c>
       <c r="M13" t="n">
-        <v>393.2851496801749</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N13" t="n">
         <v>390.5529447753113</v>
       </c>
       <c r="O13" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P13" t="n">
         <v>281.0337569360323</v>
@@ -35653,13 +35653,13 @@
         <v>451.4155517497531</v>
       </c>
       <c r="M14" t="n">
-        <v>534.2761105382491</v>
+        <v>782.2350812051536</v>
       </c>
       <c r="N14" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O14" t="n">
-        <v>751.5548523342691</v>
+        <v>503.5958816673657</v>
       </c>
       <c r="P14" t="n">
         <v>394.957938083471</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>105.6281304822419</v>
+        <v>93.28627356203293</v>
       </c>
       <c r="K15" t="n">
         <v>238.3853673354703</v>
@@ -35735,7 +35735,7 @@
         <v>448.2079983054536</v>
       </c>
       <c r="N15" t="n">
-        <v>474.624917119659</v>
+        <v>486.966774039868</v>
       </c>
       <c r="O15" t="n">
         <v>411.7448360859983</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.25132174693908</v>
+        <v>92.25132174693975</v>
       </c>
       <c r="K16" t="n">
-        <v>252.180871287061</v>
+        <v>252.1808712870609</v>
       </c>
       <c r="L16" t="n">
         <v>365.5050424018654</v>
@@ -35823,7 +35823,7 @@
         <v>281.0337569360323</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.9124524219395</v>
+        <v>124.9124524219399</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>357.6384073510546</v>
+        <v>338.362218507035</v>
       </c>
       <c r="K17" t="n">
         <v>333.8263005899301</v>
@@ -35890,7 +35890,7 @@
         <v>451.4155517497531</v>
       </c>
       <c r="M17" t="n">
-        <v>902.5150497386951</v>
+        <v>534.2761105382491</v>
       </c>
       <c r="N17" t="n">
         <v>547.5816690791062</v>
@@ -35899,13 +35899,13 @@
         <v>503.5958816673657</v>
       </c>
       <c r="P17" t="n">
-        <v>394.957938083471</v>
+        <v>716.7566462549537</v>
       </c>
       <c r="Q17" t="n">
         <v>460.2526137370345</v>
       </c>
       <c r="R17" t="n">
-        <v>57.95148810009181</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>105.6281304822423</v>
+        <v>93.28627356203293</v>
       </c>
       <c r="K18" t="n">
         <v>238.3853673354703</v>
@@ -35975,7 +35975,7 @@
         <v>474.624917119659</v>
       </c>
       <c r="O18" t="n">
-        <v>411.7448360859983</v>
+        <v>424.0866930062077</v>
       </c>
       <c r="P18" t="n">
         <v>310.9331812842967</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.25132174693907</v>
+        <v>92.25132174693908</v>
       </c>
       <c r="K19" t="n">
-        <v>252.1808712870609</v>
+        <v>252.180871287061</v>
       </c>
       <c r="L19" t="n">
         <v>365.5050424018654</v>
       </c>
       <c r="M19" t="n">
-        <v>393.2851496801754</v>
+        <v>393.2851496801749</v>
       </c>
       <c r="N19" t="n">
         <v>390.5529447753113</v>
       </c>
       <c r="O19" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611137</v>
       </c>
       <c r="P19" t="n">
-        <v>281.0337569360323</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q19" t="n">
         <v>124.9124524219399</v>
@@ -36124,25 +36124,25 @@
         <v>333.8263005899301</v>
       </c>
       <c r="L20" t="n">
-        <v>451.4155517497531</v>
+        <v>585.4528804743757</v>
       </c>
       <c r="M20" t="n">
-        <v>983.7896440310816</v>
+        <v>534.2761105382491</v>
       </c>
       <c r="N20" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O20" t="n">
-        <v>503.5958816673657</v>
+        <v>884.396062930111</v>
       </c>
       <c r="P20" t="n">
         <v>394.957938083471</v>
       </c>
       <c r="Q20" t="n">
-        <v>378.9780194446477</v>
+        <v>247.9376230771298</v>
       </c>
       <c r="R20" t="n">
-        <v>57.95148810009181</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>105.6281304822423</v>
+        <v>93.28627356203293</v>
       </c>
       <c r="K21" t="n">
         <v>238.3853673354703</v>
@@ -36221,7 +36221,7 @@
         <v>157.4271666435673</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.34185692020963</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.25132174693907</v>
+        <v>92.25132174693908</v>
       </c>
       <c r="K22" t="n">
-        <v>252.1808712870609</v>
+        <v>252.180871287061</v>
       </c>
       <c r="L22" t="n">
         <v>365.5050424018658</v>
@@ -36294,7 +36294,7 @@
         <v>348.1877468611133</v>
       </c>
       <c r="P22" t="n">
-        <v>281.0337569360323</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q22" t="n">
         <v>124.9124524219399</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>357.6384073510546</v>
+        <v>188.5417921789808</v>
       </c>
       <c r="K23" t="n">
         <v>333.8263005899301</v>
       </c>
       <c r="L23" t="n">
-        <v>451.4155517497531</v>
+        <v>485.6877618373066</v>
       </c>
       <c r="M23" t="n">
-        <v>983.7896440310816</v>
+        <v>534.2761105382491</v>
       </c>
       <c r="N23" t="n">
-        <v>547.5816690791062</v>
+        <v>984.9285934910903</v>
       </c>
       <c r="O23" t="n">
         <v>503.5958816673657</v>
@@ -36376,10 +36376,10 @@
         <v>394.957938083471</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.9780194446486</v>
+        <v>460.2526137370345</v>
       </c>
       <c r="R23" t="n">
-        <v>57.95148810009181</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>93.28627356203293</v>
       </c>
       <c r="K24" t="n">
-        <v>238.3853673354703</v>
+        <v>250.7272242556796</v>
       </c>
       <c r="L24" t="n">
         <v>367.3289905753448</v>
       </c>
       <c r="M24" t="n">
-        <v>460.549855225663</v>
+        <v>448.2079983054536</v>
       </c>
       <c r="N24" t="n">
         <v>474.624917119659</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.25132174693907</v>
+        <v>92.25132174693908</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1808712870609</v>
+        <v>252.180871287061</v>
       </c>
       <c r="L25" t="n">
         <v>365.5050424018654</v>
@@ -36531,7 +36531,7 @@
         <v>348.1877468611133</v>
       </c>
       <c r="P25" t="n">
-        <v>281.0337569360323</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q25" t="n">
         <v>124.9124524219399</v>
@@ -36595,25 +36595,25 @@
         <v>188.5417921789808</v>
       </c>
       <c r="K26" t="n">
-        <v>333.8263005899301</v>
+        <v>657.9717131610948</v>
       </c>
       <c r="L26" t="n">
-        <v>869.0767663002035</v>
+        <v>451.4155517497531</v>
       </c>
       <c r="M26" t="n">
-        <v>983.7896440310816</v>
+        <v>767.0003605871179</v>
       </c>
       <c r="N26" t="n">
-        <v>984.9285934910903</v>
+        <v>547.5816690791062</v>
       </c>
       <c r="O26" t="n">
-        <v>670.8577519262667</v>
+        <v>884.396062930111</v>
       </c>
       <c r="P26" t="n">
-        <v>394.957938083471</v>
+        <v>716.7566462549537</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.9376230771298</v>
+        <v>460.2526137370345</v>
       </c>
       <c r="R26" t="n">
         <v>57.95148810009181</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>105.6281304822422</v>
+        <v>93.28627356203293</v>
       </c>
       <c r="K27" t="n">
         <v>238.3853673354703</v>
@@ -36695,7 +36695,7 @@
         <v>157.4271666435673</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>12.34185692020963</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>233.5219160630371</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.40061154894464</v>
+        <v>77.40061154894468</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>355.5496223548693</v>
+        <v>357.6384073510546</v>
       </c>
       <c r="K29" t="n">
-        <v>657.9717131610948</v>
+        <v>587.1695759348206</v>
       </c>
       <c r="L29" t="n">
         <v>451.4155517497531</v>
       </c>
       <c r="M29" t="n">
-        <v>534.2761105382491</v>
+        <v>983.7896440310816</v>
       </c>
       <c r="N29" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O29" t="n">
-        <v>884.396062930111</v>
+        <v>503.5958816673657</v>
       </c>
       <c r="P29" t="n">
         <v>716.7566462549537</v>
@@ -36929,10 +36929,10 @@
         <v>310.9331812842967</v>
       </c>
       <c r="Q30" t="n">
-        <v>169.769023563777</v>
+        <v>157.4271666435673</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.34185692020963</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>44.73948087394382</v>
+        <v>44.73948087394388</v>
       </c>
       <c r="K31" t="n">
         <v>204.6690304140657</v>
       </c>
       <c r="L31" t="n">
-        <v>317.9932015288701</v>
+        <v>317.9932015288702</v>
       </c>
       <c r="M31" t="n">
         <v>345.7733088071797</v>
@@ -37008,7 +37008,7 @@
         <v>233.5219160630371</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.40061154894464</v>
+        <v>77.4006115489447</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>188.5417921789808</v>
+        <v>357.6384073510546</v>
       </c>
       <c r="K32" t="n">
         <v>333.8263005899301</v>
@@ -37075,22 +37075,22 @@
         <v>869.0767663002035</v>
       </c>
       <c r="M32" t="n">
-        <v>983.7896440310816</v>
+        <v>534.2761105382491</v>
       </c>
       <c r="N32" t="n">
-        <v>984.9285934910903</v>
+        <v>805.550900429501</v>
       </c>
       <c r="O32" t="n">
-        <v>643.6313889893891</v>
+        <v>503.5958816673657</v>
       </c>
       <c r="P32" t="n">
-        <v>394.957938083471</v>
+        <v>716.7566462549537</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.9376230771298</v>
+        <v>460.2526137370345</v>
       </c>
       <c r="R32" t="n">
-        <v>57.95148810009181</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>310.9331812842967</v>
       </c>
       <c r="Q33" t="n">
-        <v>169.769023563777</v>
+        <v>157.4271666435673</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>12.34185692020963</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>46.5184514282394</v>
+        <v>46.51845142823952</v>
       </c>
       <c r="K34" t="n">
-        <v>206.4480009683613</v>
+        <v>206.4480009683614</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7721720831657</v>
+        <v>319.7721720831658</v>
       </c>
       <c r="M34" t="n">
-        <v>347.5522793614753</v>
+        <v>347.5522793614754</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8200744566116</v>
+        <v>344.8200744566118</v>
       </c>
       <c r="O34" t="n">
-        <v>302.4548765424137</v>
+        <v>302.4548765424138</v>
       </c>
       <c r="P34" t="n">
-        <v>235.3008866173327</v>
+        <v>235.3008866173328</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.17958210324022</v>
+        <v>79.17958210324034</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>338.3622185070369</v>
+        <v>188.5417921789808</v>
       </c>
       <c r="K35" t="n">
         <v>333.8263005899301</v>
@@ -37318,16 +37318,16 @@
         <v>547.5816690791062</v>
       </c>
       <c r="O35" t="n">
-        <v>503.5958816673657</v>
+        <v>884.396062930111</v>
       </c>
       <c r="P35" t="n">
         <v>716.7566462549537</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.2526137370345</v>
+        <v>247.9376230771298</v>
       </c>
       <c r="R35" t="n">
-        <v>123.6679079730743</v>
+        <v>105.0031436982881</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>238.3853673354703</v>
       </c>
       <c r="L36" t="n">
-        <v>367.3289905753448</v>
+        <v>379.6708474955541</v>
       </c>
       <c r="M36" t="n">
         <v>448.2079983054536</v>
@@ -37403,7 +37403,7 @@
         <v>310.9331812842967</v>
       </c>
       <c r="Q36" t="n">
-        <v>169.769023563777</v>
+        <v>157.4271666435673</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.25132174693908</v>
+        <v>92.25132174693965</v>
       </c>
       <c r="K37" t="n">
-        <v>252.180871287061</v>
+        <v>252.1808712870609</v>
       </c>
       <c r="L37" t="n">
         <v>365.5050424018654</v>
       </c>
       <c r="M37" t="n">
-        <v>393.2851496801753</v>
+        <v>393.2851496801749</v>
       </c>
       <c r="N37" t="n">
         <v>390.5529447753113</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>357.6384073510546</v>
+        <v>188.5417921789808</v>
       </c>
       <c r="K38" t="n">
         <v>333.8263005899301</v>
       </c>
       <c r="L38" t="n">
-        <v>451.4155517497531</v>
+        <v>751.5525632893449</v>
       </c>
       <c r="M38" t="n">
-        <v>534.2761105382491</v>
+        <v>983.7896440310816</v>
       </c>
       <c r="N38" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O38" t="n">
-        <v>884.396062930111</v>
+        <v>503.5958816673657</v>
       </c>
       <c r="P38" t="n">
         <v>394.957938083471</v>
       </c>
       <c r="Q38" t="n">
-        <v>381.974951801753</v>
+        <v>247.9376230771298</v>
       </c>
       <c r="R38" t="n">
-        <v>123.6679079730743</v>
+        <v>57.95148810009181</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>448.2079983054536</v>
       </c>
       <c r="N39" t="n">
-        <v>486.9667740398684</v>
+        <v>474.624917119659</v>
       </c>
       <c r="O39" t="n">
         <v>411.7448360859983</v>
       </c>
       <c r="P39" t="n">
-        <v>310.9331812842967</v>
+        <v>323.2750382045064</v>
       </c>
       <c r="Q39" t="n">
         <v>157.4271666435673</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.25132174693908</v>
+        <v>92.25132174693906</v>
       </c>
       <c r="K40" t="n">
-        <v>252.180871287061</v>
+        <v>252.1808712870609</v>
       </c>
       <c r="L40" t="n">
-        <v>365.5050424018658</v>
+        <v>365.5050424018654</v>
       </c>
       <c r="M40" t="n">
         <v>393.2851496801749</v>
@@ -37719,7 +37719,7 @@
         <v>281.0337569360323</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.9124524219399</v>
+        <v>124.9124524219405</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>503.5958816673657</v>
       </c>
       <c r="P41" t="n">
-        <v>642.916908750375</v>
+        <v>577.2004888773935</v>
       </c>
       <c r="Q41" t="n">
         <v>247.9376230771298</v>
       </c>
       <c r="R41" t="n">
-        <v>57.95148810009181</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6281304822419</v>
+        <v>93.28627356203293</v>
       </c>
       <c r="K42" t="n">
         <v>238.3853673354703</v>
@@ -37871,7 +37871,7 @@
         <v>474.624917119659</v>
       </c>
       <c r="O42" t="n">
-        <v>411.7448360859983</v>
+        <v>424.0866930062072</v>
       </c>
       <c r="P42" t="n">
         <v>310.9331812842967</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.25132174693908</v>
+        <v>92.25132174693906</v>
       </c>
       <c r="K43" t="n">
-        <v>252.180871287061</v>
+        <v>252.1808712870609</v>
       </c>
       <c r="L43" t="n">
         <v>365.5050424018654</v>
@@ -38032,7 +38032,7 @@
         <v>503.5958816673657</v>
       </c>
       <c r="P44" t="n">
-        <v>642.916908750375</v>
+        <v>642.9169087503759</v>
       </c>
       <c r="Q44" t="n">
         <v>247.9376230771298</v>
@@ -38114,10 +38114,10 @@
         <v>310.9331812842967</v>
       </c>
       <c r="Q45" t="n">
-        <v>169.7690235637765</v>
+        <v>157.4271666435673</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>12.34185692020917</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.25132174693908</v>
+        <v>92.25132174693904</v>
       </c>
       <c r="K46" t="n">
-        <v>252.180871287061</v>
+        <v>252.1808712870609</v>
       </c>
       <c r="L46" t="n">
         <v>365.5050424018654</v>
